--- a/artfynd/A 72326-2021.xlsx
+++ b/artfynd/A 72326-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6803431</v>
+        <v>109910753</v>
       </c>
       <c r="B2" t="n">
-        <v>96354</v>
+        <v>78596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,52 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>storbäcken, Vb</t>
+          <t>Risberg, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>729732.4712969258</v>
+        <v>728699.2894223372</v>
       </c>
       <c r="R2" t="n">
-        <v>7192285.441698131</v>
+        <v>7192686.04447869</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -765,27 +750,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>förekommer i fuktstråk i äldre granskog längs storbäcken</t>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,36 +781,26 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Högörtgranskog</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>fuktstråk i äldre granskog omkring storbäcken</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mikael Marberg</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Marberg</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6803307</v>
+        <v>6803431</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>96354</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,44 +809,53 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bålar</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>storbäcken, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>729813.2748242758</v>
+        <v>729732.4712969258</v>
       </c>
       <c r="R3" t="n">
-        <v>7192204.280184632</v>
+        <v>7192285.441698131</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -898,27 +882,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-06-17</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-06-17</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Förekommer på äldre sälgar söder om myren och österut längs storbäcken.</t>
+          <t>förekommer i fuktstråk i äldre granskog längs storbäcken</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -930,24 +914,14 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>vanlig sälg</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Salix caprea subsp. caprea</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>äldre sälgar i avsatt granskog längs bäck och våtmark</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Salix caprea subsp. caprea # äldre sälgar i avsatt granskog längs bäck och våtmark</t>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Högörtgranskog</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>fuktstråk i äldre granskog omkring storbäcken</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -965,10 +939,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6803316</v>
+        <v>6803307</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -981,31 +955,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -1015,10 +985,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>729732.4712969258</v>
+        <v>729813.2748242758</v>
       </c>
       <c r="R4" t="n">
-        <v>7192285.441698131</v>
+        <v>7192204.280184632</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1045,27 +1015,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2013-06-17</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2013-06-17</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>funnen på två granlågor</t>
+          <t>Förekommer på äldre sälgar söder om myren och österut längs storbäcken.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1074,13 +1044,27 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>äldre granskog med fuktstråk som avsatts längs bäck</t>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>vanlig sälg</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Salix caprea subsp. caprea</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>äldre sälgar i avsatt granskog längs bäck och våtmark</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Salix caprea subsp. caprea # äldre sälgar i avsatt granskog längs bäck och våtmark</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1098,10 +1082,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6803279</v>
+        <v>6803316</v>
       </c>
       <c r="B5" t="n">
-        <v>98493</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1110,53 +1094,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1365</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>storbäcken, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>729813.2748242758</v>
+        <v>729732.4712969258</v>
       </c>
       <c r="R5" t="n">
-        <v>7192204.280184632</v>
+        <v>7192285.441698131</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1188,7 +1167,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1198,12 +1177,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>över 300 blommande</t>
+          <t>funnen på två granlågor</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1212,17 +1191,13 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>genomsilande markvatten i äldre bäcknära granskog</t>
+          <t>äldre granskog med fuktstråk som avsatts längs bäck</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1240,10 +1215,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>109910753</v>
+        <v>6803279</v>
       </c>
       <c r="B6" t="n">
-        <v>78596</v>
+        <v>98493</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1256,37 +1231,52 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>1365</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(L.) Tzvelev</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Risberg, Vb</t>
+          <t>storbäcken, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>728699.2894223372</v>
+        <v>729813.2748242758</v>
       </c>
       <c r="R6" t="n">
-        <v>7192686.04447869</v>
+        <v>7192204.280184632</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1310,27 +1300,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>över 300 blommande</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1341,16 +1331,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>genomsilande markvatten i äldre bäcknära granskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Mikael Marberg</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Mikael Marberg</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>

--- a/artfynd/A 72326-2021.xlsx
+++ b/artfynd/A 72326-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>109910753</v>
+        <v>6803431</v>
       </c>
       <c r="B2" t="n">
-        <v>78596</v>
+        <v>96354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,52 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Risberg, Vb</t>
+          <t>storbäcken, Vb</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>728699.2894223372</v>
+        <v>729732.4712969258</v>
       </c>
       <c r="R2" t="n">
-        <v>7192686.04447869</v>
+        <v>7192285.441698131</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,27 +765,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
+          <t>förekommer i fuktstråk i äldre granskog längs storbäcken</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,26 +796,36 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Högörtgranskog</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>fuktstråk i äldre granskog omkring storbäcken</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Mikael Marberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mimmi Persson</t>
+          <t>Mikael Marberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6803431</v>
+        <v>6803307</v>
       </c>
       <c r="B3" t="n">
-        <v>96354</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,53 +834,44 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>storbäcken, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>729732.4712969258</v>
+        <v>729813.2748242758</v>
       </c>
       <c r="R3" t="n">
-        <v>7192285.441698131</v>
+        <v>7192204.280184632</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -882,27 +898,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2013-06-17</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:13</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2013-06-17</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>förekommer i fuktstråk i äldre granskog längs storbäcken</t>
+          <t>Förekommer på äldre sälgar söder om myren och österut längs storbäcken.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,14 +930,24 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Högörtgranskog</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>fuktstråk i äldre granskog omkring storbäcken</t>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>vanlig sälg</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Salix caprea subsp. caprea</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>äldre sälgar i avsatt granskog längs bäck och våtmark</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Salix caprea subsp. caprea # äldre sälgar i avsatt granskog längs bäck och våtmark</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -939,10 +965,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6803307</v>
+        <v>6803316</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -955,27 +981,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -985,10 +1015,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>729813.2748242758</v>
+        <v>729732.4712969258</v>
       </c>
       <c r="R4" t="n">
-        <v>7192204.280184632</v>
+        <v>7192285.441698131</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1015,27 +1045,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-06-17</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:13</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-06-17</t>
+          <t>2013-06-18</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Förekommer på äldre sälgar söder om myren och österut längs storbäcken.</t>
+          <t>funnen på två granlågor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1044,27 +1074,13 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>vanlig sälg</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Salix caprea subsp. caprea</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>äldre sälgar i avsatt granskog längs bäck och våtmark</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Salix caprea subsp. caprea # äldre sälgar i avsatt granskog längs bäck och våtmark</t>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>äldre granskog med fuktstråk som avsatts längs bäck</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1082,10 +1098,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6803316</v>
+        <v>6803279</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>98493</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1094,48 +1110,53 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>1365</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lappranunkel</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Coptidium lapponicum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Tzvelev</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>storbäcken, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>729732.4712969258</v>
+        <v>729813.2748242758</v>
       </c>
       <c r="R5" t="n">
-        <v>7192285.441698131</v>
+        <v>7192204.280184632</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1167,7 +1188,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1177,12 +1198,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>funnen på två granlågor</t>
+          <t>över 300 blommande</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1191,13 +1212,17 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
+        </is>
+      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>äldre granskog med fuktstråk som avsatts längs bäck</t>
+          <t>genomsilande markvatten i äldre bäcknära granskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1215,10 +1240,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6803279</v>
+        <v>109910753</v>
       </c>
       <c r="B6" t="n">
-        <v>98493</v>
+        <v>78596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1231,52 +1256,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1365</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lappranunkel</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Coptidium lapponicum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Tzvelev</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>storbäcken, Vb</t>
+          <t>Risberg, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>729813.2748242758</v>
+        <v>728699.2894223372</v>
       </c>
       <c r="R6" t="n">
-        <v>7192204.280184632</v>
+        <v>7192686.04447869</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1300,27 +1310,27 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2013-06-18</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>över 300 blommande</t>
+          <t>Påträffad under Sveaskogs naturvärdesbedömning</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1331,26 +1341,16 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>genomsilande markvatten i äldre bäcknära granskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Mikael Marberg</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Mikael Marberg</t>
+          <t>Mimmi Persson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
